--- a/biology/Zoologie/Canis_lupus_pallipes/Canis_lupus_pallipes.xlsx
+++ b/biology/Zoologie/Canis_lupus_pallipes/Canis_lupus_pallipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loup des Indes
 Canis lupus pallipes, le Loup des Indes, est une sous-espèce de Canis lupus vivant en Inde et au Moyen-Orient.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de cette sous-espèce recouvre l'Inde et le Moyen-Orient[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de cette sous-espèce recouvre l'Inde et le Moyen-Orient
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce est décrite par le zoologiste britannique William Henry Sykes, en 1831[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Loup des Indes »[3]. À ne pas confondre avec Canis indica qui serait une espèce à part entière comme le montre l'étude (notamment sur l'ARNr 16S) de Aggarwal, Kivisild, Ramadevi &amp; Singh en 2007[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce est décrite par le zoologiste britannique William Henry Sykes, en 1831.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Loup des Indes ». À ne pas confondre avec Canis indica qui serait une espèce à part entière comme le montre l'étude (notamment sur l'ARNr 16S) de Aggarwal, Kivisild, Ramadevi &amp; Singh en 2007.
 </t>
         </is>
       </c>
